--- a/Menstral log.xlsx
+++ b/Menstral log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PEACE\Desktop\New folder\DATA_ FOR _ANALYSIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E70D3ED-A4AC-4425-8B94-FACF5F768F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C816A6D-5A01-406B-8DD1-2A9723E8698B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{4362C5E7-7C81-4A0A-9C56-C139878A3DB1}"/>
+    <workbookView xWindow="4065" yWindow="3015" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{4362C5E7-7C81-4A0A-9C56-C139878A3DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Menstral log" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>7 years Menstral cyle </a:t>
+              <a:t>7 years Menstural cyle </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -911,7 +911,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>7 years Menstral chart</a:t>
+              <a:t>7 years Menstural chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3982,7 +3982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D11EA3-15F6-4F2F-823D-0093A9DAFC3F}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -5220,7 +5220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C55429-2519-43EF-9F48-95A090DE1CDE}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C8"/>
     </sheetView>
   </sheetViews>
@@ -5411,7 +5411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6895E10C-050B-4818-81C2-90625C9307B1}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="F7" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
